--- a/Documentation/My_Pal_Solderless_Toy_Hack_BOM.xlsx
+++ b/Documentation/My_Pal_Solderless_Toy_Hack_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24923"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maker_coop\Documents\R&amp;D\BOM_updates\BOMS updated with Bulk purchase pricing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stephenm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="11_C8B615953CF7814FE4EADAF955893E2C8570C9A4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D9583F2-898D-45DD-A9BE-77639B62EE7D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F03EBE-53D5-4554-8AE6-39D0A5A31A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9168" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>Device: My Pal Solderless Toy Hack</t>
   </si>
@@ -191,6 +191,12 @@
   <si>
     <t>https://www.amazon.ca/YOLISTIC-Pack-Splice-Connector-Wire/dp/B098T7QF9L/ref=sr_1_1?crid=325NMYJAV1XA3&amp;keywords=UR2%2Bconnectors&amp;qid=1643668046&amp;s=hi&amp;sprefix=ur2%2Bconnectors%2Ctools%2C77&amp;sr=1-1&amp;th=1</t>
   </si>
+  <si>
+    <t>10-02148 Tensility International Corp | Cable Assemblies | DigiKey</t>
+  </si>
+  <si>
+    <t>ANDTOBO Aux Connector ,3.5mm TRRS Female to Female Stereo Coupler Plug Adapter- 3.3 Ft : Amazon.ca: Electronics</t>
+  </si>
 </sst>
 </file>
 
@@ -200,7 +206,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -808,28 +814,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="89.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="89.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="34.9">
+    <row r="1" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -843,7 +849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="2" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
@@ -863,12 +869,12 @@
         <v>9.49</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.149999999999999" thickBot="1">
+    <row r="3" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -897,7 +903,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -925,7 +931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -950,10 +956,10 @@
         <v>19.98</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -981,7 +987,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1009,7 +1015,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1037,7 +1043,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1065,12 +1071,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1">
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="26"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1">
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
         <v>29</v>
       </c>
@@ -1082,7 +1088,7 @@
       <c r="G12" s="22"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1">
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
@@ -1105,7 +1111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="45">
+    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1127,35 +1133,35 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E15" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E16" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E17" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E18" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:12" ht="15" thickBot="1">
+    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="D19" s="19" t="s">
         <v>36</v>
@@ -1166,7 +1172,7 @@
       </c>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:12" ht="15" thickBot="1">
+    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>37</v>
       </c>
@@ -1182,23 +1188,23 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" thickBot="1"/>
-    <row r="27" spans="1:12" ht="15" thickBot="1">
+    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28" t="s">
         <v>41</v>
       </c>
@@ -1214,7 +1220,7 @@
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
     </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1">
+    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="29" t="s">
         <v>42</v>
       </c>
@@ -1222,7 +1228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -1230,46 +1236,40 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I5" r:id="rId1" xr:uid="{EEE6A66C-2BF5-4A69-8D57-8AB5F4F594B4}"/>
-    <hyperlink ref="I6" r:id="rId2" xr:uid="{54FF063A-DF88-4A03-9F07-AB1086910B99}"/>
-    <hyperlink ref="I7" r:id="rId3" display="https://www.amazon.ca/dp/B09D6WSGBL/ref=sspa_dk_detail_2?pd_rd_i=B09D6WSGBL&amp;pd_rd_w=k7wuV&amp;pf_rd_p=a2b32c5b-02b0-4273-a3c7-c6bfabb067a2&amp;pd_rd_wg=LuKDp&amp;pf_rd_r=VXX05D0M4400KEDFEWBD&amp;pd_rd_r=0af9d5b0-d336-4efd-bb08-857e6e631645&amp;s=hi&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyN0dDU0xENUdNR0lWJmVuY3J5cHRlZElkPUEwMjkwMTk1MVY5MDBSRlU1MkZOVSZlbmNyeXB0ZWRBZElkPUEwMDA0MDkwMjk0RUVHN0lOT1VKRiZ3aWRnZXROYW1lPXNwX2RldGFpbCZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1" xr:uid="{834E0DB2-F65C-4071-9624-5791E0D01A91}"/>
-    <hyperlink ref="I8" r:id="rId4" xr:uid="{AD38FCCA-5AD5-41FD-98E8-53D38320DAFB}"/>
-    <hyperlink ref="I9" r:id="rId5" xr:uid="{FE68487F-3D7E-4FD5-8A7D-04DD3DADBD96}"/>
-    <hyperlink ref="I10" r:id="rId6" xr:uid="{4FECC39B-7E31-4BC2-96A4-17B7792A7897}"/>
-    <hyperlink ref="B29" r:id="rId7" xr:uid="{069486B4-A7A7-43E1-861D-88CE70022F88}"/>
-    <hyperlink ref="B30" r:id="rId8" xr:uid="{96AF9965-9B86-49D2-A32F-08DB6B3895F8}"/>
+    <hyperlink ref="I7" r:id="rId2" display="https://www.amazon.ca/dp/B09D6WSGBL/ref=sspa_dk_detail_2?pd_rd_i=B09D6WSGBL&amp;pd_rd_w=k7wuV&amp;pf_rd_p=a2b32c5b-02b0-4273-a3c7-c6bfabb067a2&amp;pd_rd_wg=LuKDp&amp;pf_rd_r=VXX05D0M4400KEDFEWBD&amp;pd_rd_r=0af9d5b0-d336-4efd-bb08-857e6e631645&amp;s=hi&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyN0dDU0xENUdNR0lWJmVuY3J5cHRlZElkPUEwMjkwMTk1MVY5MDBSRlU1MkZOVSZlbmNyeXB0ZWRBZElkPUEwMDA0MDkwMjk0RUVHN0lOT1VKRiZ3aWRnZXROYW1lPXNwX2RldGFpbCZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1" xr:uid="{834E0DB2-F65C-4071-9624-5791E0D01A91}"/>
+    <hyperlink ref="I8" r:id="rId3" xr:uid="{AD38FCCA-5AD5-41FD-98E8-53D38320DAFB}"/>
+    <hyperlink ref="I9" r:id="rId4" xr:uid="{FE68487F-3D7E-4FD5-8A7D-04DD3DADBD96}"/>
+    <hyperlink ref="I10" r:id="rId5" xr:uid="{4FECC39B-7E31-4BC2-96A4-17B7792A7897}"/>
+    <hyperlink ref="B29" r:id="rId6" xr:uid="{069486B4-A7A7-43E1-861D-88CE70022F88}"/>
+    <hyperlink ref="B30" r:id="rId7" xr:uid="{96AF9965-9B86-49D2-A32F-08DB6B3895F8}"/>
+    <hyperlink ref="B31" r:id="rId8" display="https://www.digikey.ca/en/products/detail/tensility-international-corp/10-02148/7606595" xr:uid="{BDA39846-F9F6-46C5-B3A5-66F9FA7C910E}"/>
+    <hyperlink ref="I6" r:id="rId9" display="https://www.amazon.ca/ANDTOBO-Connector-Female-Coupler-Adapter/dp/B08CXNHXZQ/ref=sr_1_9?keywords=Female+to+Female+3.5mm+Adapter&amp;qid=1670353633&amp;sr=8-9" xr:uid="{1BB7275D-689B-424A-8BE4-09902434546D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B51EC7ECFAC78D4E8EF6CBAFFF0B3505" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="641b75ea3bb63f1616dabaeb23366f2d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" xmlns:ns3="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="125aeedd71a4776722a3da1ea4cf4c4d" ns2:_="" ns3:_="">
     <xsd:import namespace="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
@@ -1492,14 +1492,53 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AC10B74-6CBE-4846-814F-B493EE782BE7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBFE20C1-EC5F-4FE4-A628-C0B2312331D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
+    <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19E0EDC4-B5DC-4927-9F3D-C564FAF64F61}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19E0EDC4-B5DC-4927-9F3D-C564FAF64F61}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBFE20C1-EC5F-4FE4-A628-C0B2312331D8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AC10B74-6CBE-4846-814F-B493EE782BE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>